--- a/hyperesult.xlsx
+++ b/hyperesult.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
   <si>
     <t>Brand</t>
   </si>
@@ -353,26 +353,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -387,35 +383,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -703,12 +690,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -725,10 +718,10 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -736,10 +729,10 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -747,10 +740,10 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -758,21 +751,21 @@
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>0.035</v>
       </c>
-      <c r="C5">
-        <v>2.561273762466806</v>
+      <c r="C5" t="n">
+        <v>1.744910677191525</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -780,21 +773,21 @@
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>0.03</v>
-      </c>
-      <c r="C7">
-        <v>2.195377510685833</v>
+      <c r="B7" t="n">
+        <v>0.06170454545454546</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.076254862711032</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -802,10 +795,10 @@
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -813,10 +806,10 @@
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,10 +817,10 @@
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -835,10 +828,10 @@
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -846,10 +839,10 @@
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -857,10 +850,10 @@
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -868,10 +861,10 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,10 +872,10 @@
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -890,10 +883,10 @@
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -901,10 +894,10 @@
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -912,21 +905,21 @@
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>0.01091666666666667</v>
       </c>
-      <c r="C19">
-        <v>0.798873483055123</v>
+      <c r="C19" t="n">
+        <v>0.5442459493144993</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -934,10 +927,10 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -945,10 +938,10 @@
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -956,10 +949,10 @@
       <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -967,10 +960,10 @@
       <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -978,10 +971,10 @@
       <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -989,10 +982,10 @@
       <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1000,10 +993,10 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1011,10 +1004,10 @@
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1022,10 +1015,10 @@
       <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1033,10 +1026,10 @@
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,10 +1037,10 @@
       <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1055,21 +1048,21 @@
       <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B32">
-        <v>0.02</v>
-      </c>
-      <c r="C32">
-        <v>1.463585007123889</v>
+      <c r="B32" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.495637723307021</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1077,21 +1070,21 @@
       <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="B34">
-        <v>0.2394166666666667</v>
-      </c>
-      <c r="C34">
-        <v>17.52033218944556</v>
+      <c r="B34" t="n">
+        <v>0.3591250000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>17.90402991275447</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1099,21 +1092,21 @@
       <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="B36">
-        <v>0.1087272727272727</v>
-      </c>
-      <c r="C36">
-        <v>7.956580311455322</v>
+      <c r="B36" t="n">
+        <v>0.1480909090909091</v>
+      </c>
+      <c r="C36" t="n">
+        <v>7.383011670506473</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1121,10 +1114,10 @@
       <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1132,10 +1125,10 @@
       <c r="A39" t="s">
         <v>40</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1143,10 +1136,10 @@
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1154,10 +1147,10 @@
       <c r="A41" t="s">
         <v>42</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,10 +1158,10 @@
       <c r="A42" t="s">
         <v>43</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1176,21 +1169,21 @@
       <c r="A43" t="s">
         <v>44</v>
       </c>
-      <c r="B43">
-        <v>0.04</v>
-      </c>
-      <c r="C43">
-        <v>2.927170014247778</v>
+      <c r="B43" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.991275446614042</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>45</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1198,10 +1191,10 @@
       <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1209,21 +1202,21 @@
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46">
-        <v>0.06</v>
-      </c>
-      <c r="C46">
-        <v>4.390755021371668</v>
+      <c r="B46" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="C46" t="n">
+        <v>3.988367262152055</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1231,10 +1224,10 @@
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1242,10 +1235,10 @@
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1253,10 +1246,10 @@
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1264,10 +1257,10 @@
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1275,10 +1268,10 @@
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1286,10 +1279,10 @@
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1297,10 +1290,10 @@
       <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1308,10 +1301,10 @@
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1319,21 +1312,21 @@
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56">
-        <v>0.01</v>
-      </c>
-      <c r="C56">
-        <v>0.7317925035619445</v>
+      <c r="B56" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.997091815538014</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1341,10 +1334,10 @@
       <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1352,10 +1345,10 @@
       <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1363,21 +1356,21 @@
       <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="B60">
-        <v>0.2400000000000001</v>
-      </c>
-      <c r="C60">
-        <v>17.56302008548667</v>
+      <c r="B60" t="n">
+        <v>0.3700000000000002</v>
+      </c>
+      <c r="C60" t="n">
+        <v>18.44619858745327</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1385,10 +1378,10 @@
       <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,32 +1389,32 @@
       <c r="A63" t="s">
         <v>64</v>
       </c>
-      <c r="B63">
-        <v>0.06072727272727273</v>
-      </c>
-      <c r="C63">
-        <v>4.443976294357991</v>
+      <c r="B63" t="n">
+        <v>0.1100909090909091</v>
+      </c>
+      <c r="C63" t="n">
+        <v>5.48853722098425</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B64">
-        <v>0.07999999999999999</v>
-      </c>
-      <c r="C64">
-        <v>5.854340028495555</v>
+      <c r="B64" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="C64" t="n">
+        <v>5.733277939343578</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-      <c r="C65">
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1429,10 +1422,10 @@
       <c r="A66" t="s">
         <v>67</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1440,10 +1433,10 @@
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1451,10 +1444,10 @@
       <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1462,10 +1455,10 @@
       <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1473,10 +1466,10 @@
       <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
-      <c r="C70">
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1484,10 +1477,10 @@
       <c r="A71" t="s">
         <v>72</v>
       </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1495,10 +1488,10 @@
       <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1506,10 +1499,10 @@
       <c r="A73" t="s">
         <v>74</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1517,10 +1510,10 @@
       <c r="A74" t="s">
         <v>75</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1528,10 +1521,10 @@
       <c r="A75" t="s">
         <v>76</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1539,10 +1532,10 @@
       <c r="A76" t="s">
         <v>77</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1550,21 +1543,21 @@
       <c r="A77" t="s">
         <v>78</v>
       </c>
-      <c r="B77">
-        <v>0.3213409090909092</v>
-      </c>
-      <c r="C77">
-        <v>23.51548683605077</v>
+      <c r="B77" t="n">
+        <v>0.4648446969696972</v>
+      </c>
+      <c r="C77" t="n">
+        <v>23.17464214223666</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
         <v>79</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1572,10 +1565,10 @@
       <c r="A79" t="s">
         <v>80</v>
       </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1583,10 +1576,10 @@
       <c r="A80" t="s">
         <v>81</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1594,10 +1587,10 @@
       <c r="A81" t="s">
         <v>82</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1605,10 +1598,10 @@
       <c r="A82" t="s">
         <v>83</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1616,10 +1609,10 @@
       <c r="A83" t="s">
         <v>84</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1627,10 +1620,10 @@
       <c r="A84" t="s">
         <v>85</v>
       </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1638,10 +1631,10 @@
       <c r="A85" t="s">
         <v>86</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1649,21 +1642,21 @@
       <c r="A86" t="s">
         <v>87</v>
       </c>
-      <c r="B86">
-        <v>0.01</v>
-      </c>
-      <c r="C86">
-        <v>0.7317925035619445</v>
+      <c r="B86" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.997091815538014</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>88</v>
       </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1671,10 +1664,10 @@
       <c r="A88" t="s">
         <v>89</v>
       </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,10 +1675,10 @@
       <c r="A89" t="s">
         <v>90</v>
       </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1693,10 +1686,10 @@
       <c r="A90" t="s">
         <v>91</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1704,10 +1697,10 @@
       <c r="A91" t="s">
         <v>92</v>
       </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1715,10 +1708,10 @@
       <c r="A92" t="s">
         <v>93</v>
       </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1726,10 +1719,10 @@
       <c r="A93" t="s">
         <v>94</v>
       </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,21 +1730,21 @@
       <c r="A94" t="s">
         <v>95</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>0.02</v>
       </c>
-      <c r="C94">
-        <v>1.463585007123889</v>
+      <c r="C94" t="n">
+        <v>0.997091815538014</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
         <v>96</v>
       </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1759,10 +1752,10 @@
       <c r="A96" t="s">
         <v>97</v>
       </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1770,10 +1763,10 @@
       <c r="A97" t="s">
         <v>98</v>
       </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1781,10 +1774,10 @@
       <c r="A98" t="s">
         <v>99</v>
       </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1792,21 +1785,21 @@
       <c r="A99" t="s">
         <v>100</v>
       </c>
-      <c r="B99">
-        <v>0.07037878787878787</v>
-      </c>
-      <c r="C99">
-        <v>5.150266937947321</v>
+      <c r="B99" t="n">
+        <v>0.09106060606060605</v>
+      </c>
+      <c r="C99" t="n">
+        <v>4.539789251048078</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
         <v>101</v>
       </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1814,10 +1807,10 @@
       <c r="A101" t="s">
         <v>102</v>
       </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1825,10 +1818,10 @@
       <c r="A102" t="s">
         <v>103</v>
       </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1836,21 +1829,21 @@
       <c r="A103" t="s">
         <v>104</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>0.01</v>
       </c>
-      <c r="C103">
-        <v>0.7317925035619445</v>
+      <c r="C103" t="n">
+        <v>0.498545907769007</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
         <v>105</v>
       </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1858,10 +1851,10 @@
       <c r="A105" t="s">
         <v>106</v>
       </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1869,10 +1862,10 @@
       <c r="A106" t="s">
         <v>107</v>
       </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106">
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1880,10 +1873,10 @@
       <c r="A107" t="s">
         <v>108</v>
       </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107">
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1891,10 +1884,10 @@
       <c r="A108" t="s">
         <v>109</v>
       </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108">
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1902,14 +1895,14 @@
       <c r="A109" t="s">
         <v>110</v>
       </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109">
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>